--- a/db/Budgie_2014_ME-Financing.xlsx
+++ b/db/Budgie_2014_ME-Financing.xlsx
@@ -605,7 +605,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1382,7 +1382,6 @@
   </sheetData>
   <autoFilter ref="B1:J56"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
